--- a/技术文档/技术资料.xlsx
+++ b/技术文档/技术资料.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7785" firstSheet="1" activeTab="5"/>
+    <workbookView windowWidth="20490" windowHeight="7785" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="流程配置" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="279">
   <si>
     <t>流程名称</t>
   </si>
@@ -383,6 +383,9 @@
   </si>
   <si>
     <t>web.boot.pj.entity.capitalSupervise.PresellPermissionDetail</t>
+  </si>
+  <si>
+    <t>楼盘幢权限表</t>
   </si>
   <si>
     <t>从业主体</t>
@@ -862,9 +865,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -911,8 +914,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -920,14 +939,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -948,14 +960,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -965,23 +969,22 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -998,6 +1001,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1013,7 +1023,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1022,13 +1032,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1050,7 +1053,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1062,175 +1227,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1241,21 +1244,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1307,6 +1295,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1324,15 +1336,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1349,145 +1352,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2078,8 +2081,8 @@
   <sheetPr/>
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A17" sqref="$A17:$XFD51"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2422,13 +2425,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="$A7:$XFD36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
     <col min="2" max="2" width="17.375" customWidth="1"/>
@@ -2559,6 +2562,14 @@
         <v>120</v>
       </c>
     </row>
+    <row r="7" spans="3:4">
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
+        <v>121</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2570,8 +2581,8 @@
   <sheetPr/>
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A18" sqref="$A18:$XFD31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2607,322 +2618,322 @@
     </row>
     <row r="2" customFormat="1" spans="1:6">
       <c r="A2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:6">
       <c r="A3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:6">
       <c r="A4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:6">
       <c r="A5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:6">
       <c r="A6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="1:6">
       <c r="A7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="1:6">
       <c r="A8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E8" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="1:6">
       <c r="A9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C9" t="s">
+        <v>153</v>
+      </c>
+      <c r="D9" t="s">
         <v>152</v>
       </c>
-      <c r="D9" t="s">
-        <v>151</v>
-      </c>
       <c r="E9" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F9" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" customFormat="1" ht="14.25" spans="1:6">
       <c r="A10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D10" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F10" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" customFormat="1" ht="14.25" spans="1:6">
       <c r="A11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C11" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D11" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E11" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F11" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" customFormat="1" ht="14.25" spans="1:6">
       <c r="A12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C12" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E12" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F12" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" customFormat="1" ht="14.25" spans="1:6">
       <c r="A13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C13" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D13" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E13" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F13" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14" customFormat="1" ht="14.25" spans="1:6">
       <c r="A14" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C14" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D14" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E14" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F14" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" customFormat="1" ht="14.25" spans="1:6">
       <c r="A15" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C15" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D15" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E15" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F15" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" customFormat="1" spans="1:6">
       <c r="A16" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B16" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C16" t="s">
+        <v>182</v>
+      </c>
+      <c r="D16" t="s">
         <v>181</v>
       </c>
-      <c r="D16" t="s">
-        <v>180</v>
-      </c>
       <c r="E16" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F16" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" customFormat="1" spans="1:6">
       <c r="A17" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B17" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C17" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D17" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E17" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F17" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -2936,8 +2947,8 @@
   <sheetPr/>
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2973,282 +2984,282 @@
     </row>
     <row r="2" customFormat="1" ht="14.25" spans="1:6">
       <c r="A2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D2" t="s">
         <v>189</v>
       </c>
-      <c r="D2" t="s">
-        <v>188</v>
-      </c>
       <c r="E2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" customFormat="1" ht="14.25" spans="1:6">
       <c r="A3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D3" t="s">
         <v>193</v>
       </c>
-      <c r="D3" t="s">
-        <v>192</v>
-      </c>
       <c r="E3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" customFormat="1" ht="14.25" spans="1:6">
       <c r="A4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C4" t="s">
+        <v>198</v>
+      </c>
+      <c r="D4" t="s">
         <v>197</v>
       </c>
-      <c r="D4" t="s">
-        <v>196</v>
-      </c>
       <c r="E4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" customFormat="1" ht="14.25" spans="1:6">
       <c r="A5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C5" t="s">
+        <v>201</v>
+      </c>
+      <c r="D5" t="s">
         <v>200</v>
       </c>
-      <c r="D5" t="s">
-        <v>199</v>
-      </c>
       <c r="E5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F5" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" customFormat="1" ht="14.25" spans="1:6">
       <c r="A6" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C6" t="s">
+        <v>204</v>
+      </c>
+      <c r="D6" t="s">
         <v>203</v>
       </c>
-      <c r="D6" t="s">
-        <v>202</v>
-      </c>
       <c r="E6" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F6" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7" customFormat="1" ht="14.25" spans="1:6">
       <c r="A7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C7" t="s">
+        <v>207</v>
+      </c>
+      <c r="D7" t="s">
         <v>206</v>
       </c>
-      <c r="D7" t="s">
-        <v>205</v>
-      </c>
       <c r="E7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="8" customFormat="1" ht="14.25" spans="1:6">
       <c r="A8" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C8" t="s">
+        <v>211</v>
+      </c>
+      <c r="D8" t="s">
         <v>210</v>
       </c>
-      <c r="D8" t="s">
-        <v>209</v>
-      </c>
       <c r="E8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F8" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="1:6">
       <c r="A9" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B9" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C9" t="s">
+        <v>214</v>
+      </c>
+      <c r="D9" t="s">
         <v>213</v>
       </c>
-      <c r="D9" t="s">
-        <v>212</v>
-      </c>
       <c r="E9" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F9" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="10" customFormat="1" ht="14.25" spans="1:6">
       <c r="A10" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C10" t="s">
+        <v>217</v>
+      </c>
+      <c r="D10" t="s">
         <v>216</v>
       </c>
-      <c r="D10" t="s">
-        <v>215</v>
-      </c>
       <c r="E10" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F10" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="11" customFormat="1" ht="14.25" spans="1:6">
       <c r="A11" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C11" t="s">
+        <v>220</v>
+      </c>
+      <c r="D11" t="s">
         <v>219</v>
       </c>
-      <c r="D11" t="s">
-        <v>218</v>
-      </c>
       <c r="E11" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F11" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="12" customFormat="1" ht="14.25" spans="1:6">
       <c r="A12" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C12" t="s">
+        <v>224</v>
+      </c>
+      <c r="D12" t="s">
         <v>223</v>
       </c>
-      <c r="D12" t="s">
-        <v>222</v>
-      </c>
       <c r="E12" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F12" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="1:6">
       <c r="A13" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B13" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C13" t="s">
+        <v>228</v>
+      </c>
+      <c r="D13" t="s">
         <v>227</v>
       </c>
-      <c r="D13" t="s">
-        <v>226</v>
-      </c>
       <c r="E13" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F13" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="14" customFormat="1" ht="14.25" spans="1:6">
       <c r="A14" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C14" t="s">
+        <v>232</v>
+      </c>
+      <c r="D14" t="s">
         <v>231</v>
       </c>
-      <c r="D14" t="s">
-        <v>230</v>
-      </c>
       <c r="E14" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F14" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="1:6">
       <c r="A15" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B15" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C15" t="s">
+        <v>236</v>
+      </c>
+      <c r="D15" t="s">
         <v>235</v>
       </c>
-      <c r="D15" t="s">
-        <v>234</v>
-      </c>
       <c r="E15" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F15" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -3298,162 +3309,162 @@
     </row>
     <row r="2" customFormat="1" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D3" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F3" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B4" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C4" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B5" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C5" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D5" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E5" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F5" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B6" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C6" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D6" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E6" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F6" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B7" t="s">
         <v>103</v>
       </c>
       <c r="C7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B8" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C8" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E8" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F8" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B9" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C9" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D9" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E9" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F9" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>

--- a/技术文档/技术资料.xlsx
+++ b/技术文档/技术资料.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7785" firstSheet="1" activeTab="3"/>
+    <workbookView windowWidth="28245" windowHeight="12465" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="流程配置" sheetId="1" r:id="rId1"/>
@@ -14,13 +14,15 @@
     <sheet name="从业主体" sheetId="5" r:id="rId5"/>
     <sheet name="综合信息管理系统" sheetId="6" r:id="rId6"/>
     <sheet name="统计分析" sheetId="7" r:id="rId7"/>
+    <sheet name="合同申报" sheetId="8" r:id="rId8"/>
+    <sheet name="测绘系统" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="337">
   <si>
     <t>流程名称</t>
   </si>
@@ -145,6 +147,69 @@
     <t>web.boot.pj.entity.contract.ContractChangeCheck</t>
   </si>
   <si>
+    <t>合同注销案件表</t>
+  </si>
+  <si>
+    <t>合同注销历史记录</t>
+  </si>
+  <si>
+    <t>REGISTRATION.CONTRACT</t>
+  </si>
+  <si>
+    <t>sjczzt = 101 的为注销后的</t>
+  </si>
+  <si>
+    <t>web.boot.pj.controller.contract.ContractController</t>
+  </si>
+  <si>
+    <t>web.boot.pj.entity.contract.Contract</t>
+  </si>
+  <si>
+    <t>买受人绑定</t>
+  </si>
+  <si>
+    <t>T_Housing_Binding</t>
+  </si>
+  <si>
+    <t>户室与买受人绑定表</t>
+  </si>
+  <si>
+    <t>web.boot.pj.controller.contract.HousingBindingController</t>
+  </si>
+  <si>
+    <t>web.boot.pj.entity.contract.HousingBinding</t>
+  </si>
+  <si>
+    <t>合同审核</t>
+  </si>
+  <si>
+    <t>WHFGJ.T_CONTRACT_CHECK</t>
+  </si>
+  <si>
+    <t>合同审核记录表</t>
+  </si>
+  <si>
+    <t>web.boot.pj.controller.contract.ContractCheckController</t>
+  </si>
+  <si>
+    <t>web.boot.pj.entity.contract.ContractCheck</t>
+  </si>
+  <si>
+    <t>合同预览(审核和详情里)</t>
+  </si>
+  <si>
+    <t>REGISTRATION.CONTRACTNEW</t>
+  </si>
+  <si>
+    <t>合同new表</t>
+  </si>
+  <si>
+    <t>web.boot.pj.controller.office.ContractViewController</t>
+  </si>
+  <si>
+    <t>web.boot.pj.entity.contract.Contractnew</t>
+  </si>
+  <si>
     <t>资金监管系统</t>
   </si>
   <si>
@@ -586,6 +651,39 @@
     <t>web.boot.pj.entity.employSubject.InvetorsChange</t>
   </si>
   <si>
+    <t>从业主体管理系统</t>
+  </si>
+  <si>
+    <t>企业职员信息管理</t>
+  </si>
+  <si>
+    <t>WHFGJ.T_SUBEMPLOYEE</t>
+  </si>
+  <si>
+    <t>企业职员表</t>
+  </si>
+  <si>
+    <t>web.boot.pj.controller.employSubject.SubEmployeeController</t>
+  </si>
+  <si>
+    <t>web.boot.pj.entity.employSubject.SubEmployee</t>
+  </si>
+  <si>
+    <t>企业土地购置信息管理</t>
+  </si>
+  <si>
+    <t>WHFGJ.T_SUBPURCHASE_EARTH</t>
+  </si>
+  <si>
+    <t>企业土地购置信息表</t>
+  </si>
+  <si>
+    <t>web.boot.pj.controller.employSubject.SubpurchaseEarthController</t>
+  </si>
+  <si>
+    <t>web.boot.pj.entity.employSubject.SubpurchaseEarth</t>
+  </si>
+  <si>
     <t>棚改</t>
   </si>
   <si>
@@ -857,6 +955,97 @@
   </si>
   <si>
     <t>web/boot/pj/entity/statistical/Transaction.java</t>
+  </si>
+  <si>
+    <t>合同申报</t>
+  </si>
+  <si>
+    <t>registration.bzf_zgmd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">方法：addMSR、addMSRs(没用到)、
+addMSRProxy，验证是否有保障房：
+select count(0) from REGISTRATION.BZF_ZGMD t where  t.sfyx = 1 and t.zjhm = </t>
+  </si>
+  <si>
+    <t>web/boot/pj/service/contract/ContractDeclarationService.java
+web/boot/pj/controller/contract/ContractDeclarationController.java</t>
+  </si>
+  <si>
+    <t>registration.esf_info</t>
+  </si>
+  <si>
+    <t xml:space="preserve">方法：verifyIsGarage，校验是否能够买车位
+方法：transform 销售经理转件
+方法：checkone 校验监管资金是否到位
+方法：verify1检验不动产、校验维修基金
+</t>
+  </si>
+  <si>
+    <t>web/boot/pj/controller/contract/ContractCheckController.java</t>
+  </si>
+  <si>
+    <t xml:space="preserve">t_dictionary，字典配置
+(042,001)商品房购买限制套数
+(047,001)注销限制原因
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">方法：addLszl，
+销售员选择房屋校验，校验不动产信息
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">web/boot/pj/controller/contract/ContractDeclarationController.java
+</t>
+  </si>
+  <si>
+    <t>测绘成果管理系统</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 测绘成果查询</t>
+  </si>
+  <si>
+    <t>REGISTRATION.CASEINFO</t>
+  </si>
+  <si>
+    <t>案件信息-测绘表</t>
+  </si>
+  <si>
+    <t>web.boot.pj.controller.contract.CaseinfoController</t>
+  </si>
+  <si>
+    <t>web.boot.pj.entity.contract.Caseinfo</t>
+  </si>
+  <si>
+    <t>测绘案件管理</t>
+  </si>
+  <si>
+    <t>REGISTRATION.HOUSEINFO</t>
+  </si>
+  <si>
+    <t>测绘成果表</t>
+  </si>
+  <si>
+    <t>web.boot.pj.controller.contract.HouseinfoController</t>
+  </si>
+  <si>
+    <t>web.boot.pj.entity.contract.Houseinfo</t>
+  </si>
+  <si>
+    <t>测绘案件确认记录</t>
+  </si>
+  <si>
+    <t>WHFGJ.T_CASE_CHECK</t>
+  </si>
+  <si>
+    <t>测绘案件确认记录表</t>
+  </si>
+  <si>
+    <t>web.boot.pj.controller.contract.CaseCheckController</t>
+  </si>
+  <si>
+    <t>web.boot.pj.entity.contract.CaseCheck</t>
   </si>
 </sst>
 </file>
@@ -865,9 +1054,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -914,22 +1103,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -937,9 +1110,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -947,6 +1127,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -969,15 +1157,23 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -992,6 +1188,30 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -999,39 +1219,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1053,13 +1242,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1071,7 +1284,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1083,7 +1386,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1095,7 +1398,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1107,133 +1410,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1244,6 +1433,32 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1263,39 +1478,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1306,15 +1488,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1336,11 +1509,27 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1352,154 +1541,157 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1876,20 +2068,20 @@
     <col min="5" max="5" width="61.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" ht="14.25" spans="1:5">
-      <c r="A1" s="5" t="s">
+    <row r="1" s="6" customFormat="1" ht="14.25" spans="1:5">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1954,13 +2146,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="$A5:$XFD5"/>
+      <selection activeCell="A6" sqref="$A6:$XFD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="19.625" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
@@ -2067,6 +2259,106 @@
       </c>
       <c r="F5" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" spans="1:6">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -2082,16 +2374,16 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="2" max="2" width="21.625" customWidth="1"/>
     <col min="3" max="3" width="40.375" customWidth="1"/>
     <col min="4" max="4" width="25.875" customWidth="1"/>
-    <col min="5" max="5" width="69.125" customWidth="1"/>
+    <col min="5" max="5" width="86.375" customWidth="1"/>
     <col min="6" max="6" width="57.375" customWidth="1"/>
     <col min="7" max="8" width="49.625" customWidth="1"/>
   </cols>
@@ -2118,302 +2410,302 @@
     </row>
     <row r="2" customFormat="1" spans="1:6">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="F2" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:6">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="F3" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:6">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="D4" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="E4" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="F4" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:6">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="E5" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="F5" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:6">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="C6" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="D6" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="E6" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="F6" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="1:6">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="D7" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="E7" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="F7" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="1:6">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="D8" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="E8" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="F8" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="1:6">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="C9" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="D9" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="E9" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="F9" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" customFormat="1" spans="1:6">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="B10" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="C10" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="D10" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="E10" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="F10" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="1:6">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="B11" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="C11" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="D11" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="E11" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="F11" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="1:6">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="B12" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="C12" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="D12" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="E12" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="F12" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="1:6">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="B13" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="C13" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="D13" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="E13" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="F13" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="1:6">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="B14" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="C14" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="D14" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="E14" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="F14" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="1:6">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="B15" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="C15" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="D15" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="E15" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="F15" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" customFormat="1" spans="1:6">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="B16" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="C16" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="D16" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="E16" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="F16" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -2427,7 +2719,7 @@
   <sheetPr/>
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -2464,102 +2756,102 @@
     </row>
     <row r="2" customFormat="1" spans="1:6">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="B2" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="C2" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="D2" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="E2" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="F2" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:6">
       <c r="A3" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="B3" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="C3" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="D3" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="E3" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="F3" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:6">
       <c r="A4" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="B4" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="C4" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="D4" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="E4" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="F4" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:6">
       <c r="A5" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="B5" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="C5" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="D5" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="E5" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="F5" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:6">
       <c r="A6" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="B6" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="C6" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="D6" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="E6" t="s">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="F6" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="3:4">
@@ -2567,7 +2859,7 @@
         <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -2579,10 +2871,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="A18" sqref="$A18:$XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2618,322 +2910,362 @@
     </row>
     <row r="2" customFormat="1" spans="1:6">
       <c r="A2" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="B2" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="C2" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="D2" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="E2" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="F2" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:6">
       <c r="A3" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="B3" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="C3" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="D3" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="E3" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="F3" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:6">
       <c r="A4" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="B4" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="C4" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="D4" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="E4" t="s">
-        <v>134</v>
+        <v>155</v>
       </c>
       <c r="F4" t="s">
-        <v>135</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:6">
       <c r="A5" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="B5" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="C5" t="s">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="D5" t="s">
-        <v>137</v>
+        <v>158</v>
       </c>
       <c r="E5" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="F5" t="s">
-        <v>139</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:6">
       <c r="A6" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="B6" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="C6" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="D6" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="E6" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="F6" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="1:6">
       <c r="A7" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="B7" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="C7" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="D7" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="E7" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="F7" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="1:6">
       <c r="A8" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="B8" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="C8" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="D8" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="E8" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="F8" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="1:6">
       <c r="A9" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="B9" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="C9" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="D9" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="E9" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="F9" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10" customFormat="1" ht="14.25" spans="1:6">
       <c r="A10" t="s">
-        <v>122</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>156</v>
+        <v>143</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>177</v>
       </c>
       <c r="C10" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="D10" t="s">
-        <v>158</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>159</v>
+        <v>179</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>180</v>
       </c>
       <c r="F10" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" customFormat="1" ht="14.25" spans="1:6">
       <c r="A11" t="s">
-        <v>122</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>156</v>
+        <v>143</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>177</v>
       </c>
       <c r="C11" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c r="D11" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="E11" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="F11" t="s">
-        <v>164</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" customFormat="1" ht="14.25" spans="1:6">
       <c r="A12" t="s">
-        <v>122</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>156</v>
+        <v>143</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>177</v>
       </c>
       <c r="C12" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="D12" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="E12" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="F12" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" customFormat="1" ht="14.25" spans="1:6">
       <c r="A13" t="s">
-        <v>122</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>156</v>
+        <v>143</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>177</v>
       </c>
       <c r="C13" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="D13" t="s">
-        <v>170</v>
+        <v>191</v>
       </c>
       <c r="E13" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="F13" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14" customFormat="1" ht="14.25" spans="1:6">
       <c r="A14" t="s">
-        <v>122</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>156</v>
+        <v>143</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>177</v>
       </c>
       <c r="C14" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="D14" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="E14" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="F14" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
     </row>
     <row r="15" customFormat="1" ht="14.25" spans="1:6">
       <c r="A15" t="s">
-        <v>122</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>156</v>
+        <v>143</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>177</v>
       </c>
       <c r="C15" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="D15" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="E15" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="F15" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
     </row>
     <row r="16" customFormat="1" spans="1:6">
       <c r="A16" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="B16" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="C16" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="D16" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="E16" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="F16" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
     </row>
     <row r="17" customFormat="1" spans="1:6">
       <c r="A17" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="B17" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="C17" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="D17" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="E17" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="F17" t="s">
-        <v>187</v>
+        <v>208</v>
+      </c>
+    </row>
+    <row r="18" customFormat="1" spans="1:6">
+      <c r="A18" t="s">
+        <v>209</v>
+      </c>
+      <c r="B18" t="s">
+        <v>210</v>
+      </c>
+      <c r="C18" t="s">
+        <v>211</v>
+      </c>
+      <c r="D18" t="s">
+        <v>212</v>
+      </c>
+      <c r="E18" t="s">
+        <v>213</v>
+      </c>
+      <c r="F18" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="19" customFormat="1" spans="1:6">
+      <c r="A19" t="s">
+        <v>209</v>
+      </c>
+      <c r="B19" t="s">
+        <v>215</v>
+      </c>
+      <c r="C19" t="s">
+        <v>216</v>
+      </c>
+      <c r="D19" t="s">
+        <v>217</v>
+      </c>
+      <c r="E19" t="s">
+        <v>218</v>
+      </c>
+      <c r="F19" t="s">
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -2984,282 +3316,282 @@
     </row>
     <row r="2" customFormat="1" ht="14.25" spans="1:6">
       <c r="A2" t="s">
-        <v>188</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>189</v>
+        <v>220</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>221</v>
       </c>
       <c r="C2" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="D2" t="s">
-        <v>189</v>
+        <v>221</v>
       </c>
       <c r="E2" t="s">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="F2" t="s">
-        <v>192</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" customFormat="1" ht="14.25" spans="1:6">
       <c r="A3" t="s">
-        <v>188</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>193</v>
+        <v>220</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>225</v>
       </c>
       <c r="C3" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="D3" t="s">
-        <v>193</v>
+        <v>225</v>
       </c>
       <c r="E3" t="s">
-        <v>195</v>
+        <v>227</v>
       </c>
       <c r="F3" t="s">
-        <v>196</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4" customFormat="1" ht="14.25" spans="1:6">
       <c r="A4" t="s">
-        <v>188</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>197</v>
+        <v>220</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>229</v>
       </c>
       <c r="C4" t="s">
-        <v>198</v>
+        <v>230</v>
       </c>
       <c r="D4" t="s">
-        <v>197</v>
+        <v>229</v>
       </c>
       <c r="E4" t="s">
-        <v>195</v>
+        <v>227</v>
       </c>
       <c r="F4" t="s">
-        <v>199</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" customFormat="1" ht="14.25" spans="1:6">
       <c r="A5" t="s">
-        <v>188</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>200</v>
+        <v>220</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>232</v>
       </c>
       <c r="C5" t="s">
-        <v>201</v>
+        <v>233</v>
       </c>
       <c r="D5" t="s">
-        <v>200</v>
+        <v>232</v>
       </c>
       <c r="E5" t="s">
-        <v>195</v>
+        <v>227</v>
       </c>
       <c r="F5" t="s">
-        <v>202</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6" customFormat="1" ht="14.25" spans="1:6">
       <c r="A6" t="s">
-        <v>188</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>203</v>
+        <v>220</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>235</v>
       </c>
       <c r="C6" t="s">
-        <v>204</v>
+        <v>236</v>
       </c>
       <c r="D6" t="s">
-        <v>203</v>
+        <v>235</v>
       </c>
       <c r="E6" t="s">
-        <v>195</v>
+        <v>227</v>
       </c>
       <c r="F6" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
     </row>
     <row r="7" customFormat="1" ht="14.25" spans="1:6">
       <c r="A7" t="s">
-        <v>188</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>206</v>
+        <v>220</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>238</v>
       </c>
       <c r="C7" t="s">
-        <v>207</v>
+        <v>239</v>
       </c>
       <c r="D7" t="s">
-        <v>206</v>
+        <v>238</v>
       </c>
       <c r="E7" t="s">
-        <v>208</v>
+        <v>240</v>
       </c>
       <c r="F7" t="s">
-        <v>209</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" customFormat="1" ht="14.25" spans="1:6">
       <c r="A8" t="s">
-        <v>188</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>210</v>
+        <v>220</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>242</v>
       </c>
       <c r="C8" t="s">
-        <v>211</v>
+        <v>243</v>
       </c>
       <c r="D8" t="s">
-        <v>210</v>
+        <v>242</v>
       </c>
       <c r="E8" t="s">
-        <v>208</v>
+        <v>240</v>
       </c>
       <c r="F8" t="s">
-        <v>212</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="1:6">
       <c r="A9" t="s">
-        <v>188</v>
+        <v>220</v>
       </c>
       <c r="B9" t="s">
-        <v>213</v>
+        <v>245</v>
       </c>
       <c r="C9" t="s">
-        <v>214</v>
+        <v>246</v>
       </c>
       <c r="D9" t="s">
-        <v>213</v>
+        <v>245</v>
       </c>
       <c r="E9" t="s">
-        <v>208</v>
+        <v>240</v>
       </c>
       <c r="F9" t="s">
-        <v>215</v>
+        <v>247</v>
       </c>
     </row>
     <row r="10" customFormat="1" ht="14.25" spans="1:6">
       <c r="A10" t="s">
-        <v>188</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>216</v>
+        <v>220</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>248</v>
       </c>
       <c r="C10" t="s">
-        <v>217</v>
+        <v>249</v>
       </c>
       <c r="D10" t="s">
-        <v>216</v>
+        <v>248</v>
       </c>
       <c r="E10" t="s">
-        <v>208</v>
+        <v>240</v>
       </c>
       <c r="F10" t="s">
-        <v>218</v>
+        <v>250</v>
       </c>
     </row>
     <row r="11" customFormat="1" ht="14.25" spans="1:6">
       <c r="A11" t="s">
-        <v>188</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>251</v>
       </c>
       <c r="C11" t="s">
-        <v>220</v>
+        <v>252</v>
       </c>
       <c r="D11" t="s">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="E11" t="s">
-        <v>221</v>
+        <v>253</v>
       </c>
       <c r="F11" t="s">
-        <v>222</v>
+        <v>254</v>
       </c>
     </row>
     <row r="12" customFormat="1" ht="14.25" spans="1:6">
       <c r="A12" t="s">
-        <v>188</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>255</v>
       </c>
       <c r="C12" t="s">
-        <v>224</v>
+        <v>256</v>
       </c>
       <c r="D12" t="s">
-        <v>223</v>
+        <v>255</v>
       </c>
       <c r="E12" t="s">
-        <v>225</v>
+        <v>257</v>
       </c>
       <c r="F12" t="s">
-        <v>226</v>
+        <v>258</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="1:6">
       <c r="A13" t="s">
-        <v>188</v>
+        <v>220</v>
       </c>
       <c r="B13" t="s">
-        <v>227</v>
+        <v>259</v>
       </c>
       <c r="C13" t="s">
-        <v>228</v>
+        <v>260</v>
       </c>
       <c r="D13" t="s">
-        <v>227</v>
+        <v>259</v>
       </c>
       <c r="E13" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="F13" t="s">
-        <v>230</v>
+        <v>262</v>
       </c>
     </row>
     <row r="14" customFormat="1" ht="14.25" spans="1:6">
       <c r="A14" t="s">
-        <v>188</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>231</v>
+        <v>220</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>263</v>
       </c>
       <c r="C14" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="D14" t="s">
-        <v>231</v>
+        <v>263</v>
       </c>
       <c r="E14" t="s">
-        <v>233</v>
+        <v>265</v>
       </c>
       <c r="F14" t="s">
-        <v>234</v>
+        <v>266</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="1:6">
       <c r="A15" t="s">
-        <v>188</v>
+        <v>220</v>
       </c>
       <c r="B15" t="s">
-        <v>235</v>
+        <v>267</v>
       </c>
       <c r="C15" t="s">
-        <v>236</v>
+        <v>268</v>
       </c>
       <c r="D15" t="s">
-        <v>235</v>
+        <v>267</v>
       </c>
       <c r="E15" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F15" t="s">
-        <v>238</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -3274,7 +3606,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -3308,163 +3640,404 @@
       </c>
     </row>
     <row r="2" customFormat="1" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>239</v>
+      <c r="A2" s="3" t="s">
+        <v>271</v>
       </c>
       <c r="B2" t="s">
-        <v>240</v>
+        <v>272</v>
       </c>
       <c r="C2" t="s">
-        <v>241</v>
+        <v>273</v>
       </c>
       <c r="D2" t="s">
-        <v>242</v>
+        <v>274</v>
       </c>
       <c r="E2" t="s">
-        <v>243</v>
+        <v>275</v>
       </c>
       <c r="F2" t="s">
-        <v>244</v>
+        <v>276</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:6">
-      <c r="A3" s="2" t="s">
-        <v>239</v>
+      <c r="A3" s="3" t="s">
+        <v>271</v>
       </c>
       <c r="B3" t="s">
-        <v>245</v>
+        <v>277</v>
       </c>
       <c r="C3" t="s">
-        <v>246</v>
+        <v>278</v>
       </c>
       <c r="D3" t="s">
-        <v>247</v>
+        <v>279</v>
       </c>
       <c r="E3" t="s">
-        <v>248</v>
+        <v>280</v>
       </c>
       <c r="F3" t="s">
-        <v>249</v>
+        <v>281</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:6">
-      <c r="A4" s="2" t="s">
-        <v>239</v>
+      <c r="A4" s="3" t="s">
+        <v>271</v>
       </c>
       <c r="B4" t="s">
-        <v>250</v>
+        <v>282</v>
       </c>
       <c r="C4" t="s">
-        <v>251</v>
+        <v>283</v>
       </c>
       <c r="D4" t="s">
-        <v>252</v>
+        <v>284</v>
       </c>
       <c r="E4" t="s">
-        <v>253</v>
+        <v>285</v>
       </c>
       <c r="F4" t="s">
-        <v>254</v>
+        <v>286</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:6">
-      <c r="A5" s="2" t="s">
-        <v>239</v>
+      <c r="A5" s="3" t="s">
+        <v>271</v>
       </c>
       <c r="B5" t="s">
-        <v>255</v>
+        <v>287</v>
       </c>
       <c r="C5" t="s">
-        <v>256</v>
+        <v>288</v>
       </c>
       <c r="D5" t="s">
-        <v>257</v>
+        <v>289</v>
       </c>
       <c r="E5" t="s">
-        <v>258</v>
+        <v>290</v>
       </c>
       <c r="F5" t="s">
-        <v>259</v>
+        <v>291</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:6">
-      <c r="A6" s="2" t="s">
-        <v>239</v>
+      <c r="A6" s="3" t="s">
+        <v>271</v>
       </c>
       <c r="B6" t="s">
-        <v>260</v>
+        <v>292</v>
       </c>
       <c r="C6" t="s">
-        <v>261</v>
+        <v>293</v>
       </c>
       <c r="D6" t="s">
-        <v>262</v>
+        <v>294</v>
       </c>
       <c r="E6" t="s">
-        <v>263</v>
+        <v>295</v>
       </c>
       <c r="F6" t="s">
-        <v>264</v>
+        <v>296</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="1:6">
-      <c r="A7" s="2" t="s">
-        <v>239</v>
+      <c r="A7" s="3" t="s">
+        <v>271</v>
       </c>
       <c r="B7" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="C7" t="s">
-        <v>265</v>
+        <v>297</v>
       </c>
       <c r="D7" t="s">
-        <v>266</v>
+        <v>298</v>
       </c>
       <c r="E7" t="s">
-        <v>267</v>
+        <v>299</v>
       </c>
       <c r="F7" t="s">
-        <v>268</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="1:6">
-      <c r="A8" s="2" t="s">
-        <v>239</v>
+      <c r="A8" s="3" t="s">
+        <v>271</v>
       </c>
       <c r="B8" t="s">
-        <v>269</v>
+        <v>301</v>
       </c>
       <c r="C8" t="s">
-        <v>270</v>
+        <v>302</v>
       </c>
       <c r="D8" t="s">
+        <v>303</v>
+      </c>
+      <c r="E8" t="s">
+        <v>304</v>
+      </c>
+      <c r="F8" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" spans="1:6">
+      <c r="A9" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="E8" t="s">
+      <c r="B9" t="s">
+        <v>306</v>
+      </c>
+      <c r="C9" t="s">
+        <v>307</v>
+      </c>
+      <c r="D9" t="s">
+        <v>308</v>
+      </c>
+      <c r="E9" t="s">
+        <v>309</v>
+      </c>
+      <c r="F9" t="s">
+        <v>310</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="17.875" customWidth="1"/>
+    <col min="2" max="2" width="12.625" customWidth="1"/>
+    <col min="3" max="3" width="29" customWidth="1"/>
+    <col min="4" max="4" width="44.875" customWidth="1"/>
+    <col min="5" max="5" width="99.75" customWidth="1"/>
+    <col min="6" max="6" width="35.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" ht="108" customHeight="1" spans="1:5">
+      <c r="A2" t="s">
         <v>272</v>
       </c>
-      <c r="F8" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="9" customFormat="1" spans="1:6">
-      <c r="A9" s="2" t="s">
-        <v>239</v>
+      <c r="B2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C2" t="s">
+        <v>312</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="3" ht="59" customHeight="1" spans="1:5">
+      <c r="A3" t="s">
+        <v>272</v>
+      </c>
+      <c r="B3" t="s">
+        <v>311</v>
+      </c>
+      <c r="C3" t="s">
+        <v>315</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="E3" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="4" ht="48" customHeight="1" spans="1:5">
+      <c r="A4" t="s">
+        <v>272</v>
+      </c>
+      <c r="B4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>272</v>
+      </c>
+      <c r="B5" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>272</v>
+      </c>
+      <c r="B6" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>272</v>
+      </c>
+      <c r="B7" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>272</v>
+      </c>
+      <c r="B8" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>272</v>
       </c>
       <c r="B9" t="s">
-        <v>274</v>
-      </c>
-      <c r="C9" t="s">
-        <v>275</v>
-      </c>
-      <c r="D9" t="s">
-        <v>276</v>
-      </c>
-      <c r="E9" t="s">
-        <v>277</v>
-      </c>
-      <c r="F9" t="s">
-        <v>278</v>
+        <v>311</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="19.625" customWidth="1"/>
+    <col min="2" max="2" width="21.125" customWidth="1"/>
+    <col min="3" max="3" width="26.125" customWidth="1"/>
+    <col min="4" max="4" width="25.5" customWidth="1"/>
+    <col min="5" max="5" width="60.5" customWidth="1"/>
+    <col min="6" max="8" width="49.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1" spans="1:6">
+      <c r="A2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C2" t="s">
+        <v>323</v>
+      </c>
+      <c r="D2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E2" t="s">
+        <v>325</v>
+      </c>
+      <c r="F2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" spans="1:6">
+      <c r="A3" t="s">
+        <v>321</v>
+      </c>
+      <c r="B3" t="s">
+        <v>327</v>
+      </c>
+      <c r="C3" t="s">
+        <v>328</v>
+      </c>
+      <c r="D3" t="s">
+        <v>329</v>
+      </c>
+      <c r="E3" t="s">
+        <v>330</v>
+      </c>
+      <c r="F3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" spans="1:6">
+      <c r="A4" t="s">
+        <v>321</v>
+      </c>
+      <c r="B4" t="s">
+        <v>332</v>
+      </c>
+      <c r="C4" t="s">
+        <v>333</v>
+      </c>
+      <c r="D4" t="s">
+        <v>334</v>
+      </c>
+      <c r="E4" t="s">
+        <v>335</v>
+      </c>
+      <c r="F4" t="s">
+        <v>336</v>
       </c>
     </row>
   </sheetData>

--- a/技术文档/技术资料.xlsx
+++ b/技术文档/技术资料.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28245" windowHeight="12465" firstSheet="1" activeTab="8"/>
+    <workbookView windowWidth="28245" windowHeight="12465" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="流程配置" sheetId="1" r:id="rId1"/>
@@ -2149,7 +2149,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="$A6:$XFD10"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2373,8 +2373,8 @@
   <sheetPr/>
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2720,7 +2720,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="5"/>
@@ -3946,7 +3946,7 @@
   <sheetPr/>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>

--- a/技术文档/技术资料.xlsx
+++ b/技术文档/技术资料.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28245" windowHeight="12465" firstSheet="1" activeTab="2"/>
+    <workbookView windowWidth="20490" windowHeight="7785" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="流程配置" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="355">
   <si>
     <t>流程名称</t>
   </si>
@@ -444,13 +444,70 @@
     <t>网签明细</t>
   </si>
   <si>
-    <t>web.boot.pj.controller.netsign.NetSignController/CashSaleNetSignController</t>
+    <t>NetSignController/CashSaleNetSignController</t>
   </si>
   <si>
     <t>web.boot.pj.entity.capitalSupervise.PresellPermissionDetail</t>
   </si>
   <si>
     <t>楼盘幢权限表</t>
+  </si>
+  <si>
+    <t>开通预售网签</t>
+  </si>
+  <si>
+    <t>列表页面：
+toLphsList方法：state=1/0
+选择户室或者编辑</t>
+  </si>
+  <si>
+    <t>方法：getNetSignList
+cms/netSign/presellInfo
+开通网签：/cms/netSign/toOpenNetSign</t>
+  </si>
+  <si>
+    <t>web.boot.pj.controller.netsign.NetSignController</t>
+  </si>
+  <si>
+    <t>打印汇总类</t>
+  </si>
+  <si>
+    <t>CapitalSuperviseOfficeController</t>
+  </si>
+  <si>
+    <t>开通预售许可证</t>
+  </si>
+  <si>
+    <t xml:space="preserve">预售许可证审核方法：audit
+列表方法：
+</t>
+  </si>
+  <si>
+    <t>CashSalePermitController</t>
+  </si>
+  <si>
+    <t>预售许可证创建方法：savePermit</t>
+  </si>
+  <si>
+    <t>BuildingService</t>
+  </si>
+  <si>
+    <t>现售预售许可证</t>
+  </si>
+  <si>
+    <t xml:space="preserve">列表方法：list
+cashSaleCreateList.html
+</t>
+  </si>
+  <si>
+    <t>CashSaleController</t>
+  </si>
+  <si>
+    <t>获取不动产号：getBdc
+开通现售：/cms/cashSale/toPreEdit</t>
+  </si>
+  <si>
+    <t>校验是否存在不动产，</t>
   </si>
   <si>
     <t>从业主体</t>
@@ -979,10 +1036,21 @@
 方法：transform 销售经理转件
 方法：checkone 校验监管资金是否到位
 方法：verify1检验不动产、校验维修基金
+方法：transfer 合同管理员转件，页面：contractDeclarationList.html
 </t>
   </si>
   <si>
     <t>web/boot/pj/controller/contract/ContractCheckController.java</t>
+  </si>
+  <si>
+    <t>合同管理员转件</t>
+  </si>
+  <si>
+    <t>预售/现售户室查询：findByLpzl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">web/boot/pj/controller/contract/ContractDeclarationController.java
+</t>
   </si>
   <si>
     <t xml:space="preserve">t_dictionary，字典配置
@@ -993,10 +1061,6 @@
   <si>
     <t xml:space="preserve">方法：addLszl，
 销售员选择房屋校验，校验不动产信息
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">web/boot/pj/controller/contract/ContractDeclarationController.java
 </t>
   </si>
   <si>
@@ -1090,16 +1154,32 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1111,15 +1191,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1127,14 +1199,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1156,9 +1220,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1172,15 +1251,22 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1195,39 +1281,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1239,6 +1303,12 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1254,7 +1324,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1266,7 +1420,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1278,73 +1456,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1356,73 +1486,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1438,10 +1502,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1462,6 +1524,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1477,17 +1548,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1507,29 +1583,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1541,149 +1605,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1701,6 +1765,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -2068,20 +2138,20 @@
     <col min="5" max="5" width="61.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="1" ht="14.25" spans="1:5">
-      <c r="A1" s="6" t="s">
+    <row r="1" s="8" customFormat="1" ht="14.25" spans="1:5">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2373,8 +2443,8 @@
   <sheetPr/>
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2717,19 +2787,19 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
     <col min="2" max="2" width="17.375" customWidth="1"/>
-    <col min="3" max="3" width="40.375" customWidth="1"/>
-    <col min="4" max="4" width="25.875" customWidth="1"/>
-    <col min="5" max="5" width="69.125" customWidth="1"/>
+    <col min="3" max="3" width="37.5" customWidth="1"/>
+    <col min="4" max="4" width="27.25" customWidth="1"/>
+    <col min="5" max="5" width="37.625" customWidth="1"/>
     <col min="6" max="6" width="57.375" customWidth="1"/>
     <col min="7" max="8" width="49.625" customWidth="1"/>
   </cols>
@@ -2862,7 +2932,75 @@
         <v>142</v>
       </c>
     </row>
+    <row r="8" ht="84" customHeight="1" spans="1:5">
+      <c r="A8" t="s">
+        <v>143</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="4:5">
+      <c r="D9" t="s">
+        <v>147</v>
+      </c>
+      <c r="E9" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" ht="40.5" spans="1:5">
+      <c r="A10" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="6"/>
+      <c r="C11" t="s">
+        <v>152</v>
+      </c>
+      <c r="E11" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="12" ht="40.5" spans="1:5">
+      <c r="A12" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="13" ht="39" customHeight="1" spans="1:5">
+      <c r="A13" s="6"/>
+      <c r="C13" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="D13" t="s">
+        <v>158</v>
+      </c>
+      <c r="E13" s="6"/>
+    </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="E12:E13"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -2910,362 +3048,362 @@
     </row>
     <row r="2" customFormat="1" spans="1:6">
       <c r="A2" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="B2" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="C2" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="D2" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="E2" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="F2" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:6">
       <c r="A3" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="B3" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="C3" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="D3" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="E3" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="F3" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:6">
       <c r="A4" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="B4" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="C4" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="D4" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="E4" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="F4" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:6">
       <c r="A5" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="B5" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="C5" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="D5" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="E5" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="F5" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:6">
       <c r="A6" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="B6" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="C6" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="D6" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="E6" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="F6" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="1:6">
       <c r="A7" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="B7" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="C7" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="D7" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="E7" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="F7" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="1:6">
       <c r="A8" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="B8" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="C8" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="D8" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="E8" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="F8" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="1:6">
       <c r="A9" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="B9" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="C9" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="D9" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="E9" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="F9" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10" customFormat="1" ht="14.25" spans="1:6">
       <c r="A10" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="C10" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="D10" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="F10" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" customFormat="1" ht="14.25" spans="1:6">
       <c r="A11" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="C11" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="D11" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="E11" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="F11" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
     </row>
     <row r="12" customFormat="1" ht="14.25" spans="1:6">
       <c r="A12" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="C12" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="D12" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="E12" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="F12" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
     </row>
     <row r="13" customFormat="1" ht="14.25" spans="1:6">
       <c r="A13" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="C13" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="D13" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="E13" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="F13" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
     </row>
     <row r="14" customFormat="1" ht="14.25" spans="1:6">
       <c r="A14" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="C14" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="D14" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="E14" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="F14" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15" customFormat="1" ht="14.25" spans="1:6">
       <c r="A15" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="C15" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="D15" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="E15" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="F15" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
     </row>
     <row r="16" customFormat="1" spans="1:6">
       <c r="A16" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="B16" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="C16" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="D16" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="E16" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="F16" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
     </row>
     <row r="17" customFormat="1" spans="1:6">
       <c r="A17" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="B17" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="C17" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="D17" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="E17" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="F17" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
     </row>
     <row r="18" customFormat="1" spans="1:6">
       <c r="A18" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="B18" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="C18" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="D18" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="E18" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="F18" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
     </row>
     <row r="19" customFormat="1" spans="1:6">
       <c r="A19" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="B19" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="C19" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="D19" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="E19" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
       <c r="F19" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -3316,282 +3454,282 @@
     </row>
     <row r="2" customFormat="1" ht="14.25" spans="1:6">
       <c r="A2" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>221</v>
+        <v>237</v>
       </c>
       <c r="C2" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="D2" t="s">
-        <v>221</v>
+        <v>237</v>
       </c>
       <c r="E2" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="F2" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
     </row>
     <row r="3" customFormat="1" ht="14.25" spans="1:6">
       <c r="A3" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>225</v>
+        <v>241</v>
       </c>
       <c r="C3" t="s">
-        <v>226</v>
+        <v>242</v>
       </c>
       <c r="D3" t="s">
-        <v>225</v>
+        <v>241</v>
       </c>
       <c r="E3" t="s">
-        <v>227</v>
+        <v>243</v>
       </c>
       <c r="F3" t="s">
-        <v>228</v>
+        <v>244</v>
       </c>
     </row>
     <row r="4" customFormat="1" ht="14.25" spans="1:6">
       <c r="A4" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>229</v>
+        <v>245</v>
       </c>
       <c r="C4" t="s">
-        <v>230</v>
+        <v>246</v>
       </c>
       <c r="D4" t="s">
-        <v>229</v>
+        <v>245</v>
       </c>
       <c r="E4" t="s">
-        <v>227</v>
+        <v>243</v>
       </c>
       <c r="F4" t="s">
-        <v>231</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5" customFormat="1" ht="14.25" spans="1:6">
       <c r="A5" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="C5" t="s">
-        <v>233</v>
+        <v>249</v>
       </c>
       <c r="D5" t="s">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="E5" t="s">
-        <v>227</v>
+        <v>243</v>
       </c>
       <c r="F5" t="s">
-        <v>234</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" customFormat="1" ht="14.25" spans="1:6">
       <c r="A6" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>235</v>
+        <v>251</v>
       </c>
       <c r="C6" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="D6" t="s">
-        <v>235</v>
+        <v>251</v>
       </c>
       <c r="E6" t="s">
-        <v>227</v>
+        <v>243</v>
       </c>
       <c r="F6" t="s">
-        <v>237</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7" customFormat="1" ht="14.25" spans="1:6">
       <c r="A7" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>238</v>
+        <v>254</v>
       </c>
       <c r="C7" t="s">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="D7" t="s">
-        <v>238</v>
+        <v>254</v>
       </c>
       <c r="E7" t="s">
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="F7" t="s">
-        <v>241</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" customFormat="1" ht="14.25" spans="1:6">
       <c r="A8" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>242</v>
+        <v>258</v>
       </c>
       <c r="C8" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="D8" t="s">
-        <v>242</v>
+        <v>258</v>
       </c>
       <c r="E8" t="s">
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="F8" t="s">
-        <v>244</v>
+        <v>260</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="1:6">
       <c r="A9" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="B9" t="s">
-        <v>245</v>
+        <v>261</v>
       </c>
       <c r="C9" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="D9" t="s">
-        <v>245</v>
+        <v>261</v>
       </c>
       <c r="E9" t="s">
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="F9" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
     </row>
     <row r="10" customFormat="1" ht="14.25" spans="1:6">
       <c r="A10" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="C10" t="s">
-        <v>249</v>
+        <v>265</v>
       </c>
       <c r="D10" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="E10" t="s">
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="F10" t="s">
-        <v>250</v>
+        <v>266</v>
       </c>
     </row>
     <row r="11" customFormat="1" ht="14.25" spans="1:6">
       <c r="A11" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>251</v>
+        <v>267</v>
       </c>
       <c r="C11" t="s">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="D11" t="s">
-        <v>251</v>
+        <v>267</v>
       </c>
       <c r="E11" t="s">
-        <v>253</v>
+        <v>269</v>
       </c>
       <c r="F11" t="s">
-        <v>254</v>
+        <v>270</v>
       </c>
     </row>
     <row r="12" customFormat="1" ht="14.25" spans="1:6">
       <c r="A12" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>255</v>
+        <v>271</v>
       </c>
       <c r="C12" t="s">
-        <v>256</v>
+        <v>272</v>
       </c>
       <c r="D12" t="s">
-        <v>255</v>
+        <v>271</v>
       </c>
       <c r="E12" t="s">
-        <v>257</v>
+        <v>273</v>
       </c>
       <c r="F12" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="1:6">
       <c r="A13" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="B13" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="C13" t="s">
-        <v>260</v>
+        <v>276</v>
       </c>
       <c r="D13" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="E13" t="s">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="F13" t="s">
-        <v>262</v>
+        <v>278</v>
       </c>
     </row>
     <row r="14" customFormat="1" ht="14.25" spans="1:6">
       <c r="A14" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>263</v>
+        <v>279</v>
       </c>
       <c r="C14" t="s">
-        <v>264</v>
+        <v>280</v>
       </c>
       <c r="D14" t="s">
-        <v>263</v>
+        <v>279</v>
       </c>
       <c r="E14" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="F14" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="1:6">
       <c r="A15" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="B15" t="s">
-        <v>267</v>
+        <v>283</v>
       </c>
       <c r="C15" t="s">
-        <v>268</v>
+        <v>284</v>
       </c>
       <c r="D15" t="s">
-        <v>267</v>
+        <v>283</v>
       </c>
       <c r="E15" t="s">
-        <v>269</v>
+        <v>285</v>
       </c>
       <c r="F15" t="s">
-        <v>270</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -3641,162 +3779,162 @@
     </row>
     <row r="2" customFormat="1" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>271</v>
+        <v>287</v>
       </c>
       <c r="B2" t="s">
-        <v>272</v>
+        <v>288</v>
       </c>
       <c r="C2" t="s">
-        <v>273</v>
+        <v>289</v>
       </c>
       <c r="D2" t="s">
-        <v>274</v>
+        <v>290</v>
       </c>
       <c r="E2" t="s">
-        <v>275</v>
+        <v>291</v>
       </c>
       <c r="F2" t="s">
-        <v>276</v>
+        <v>292</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>271</v>
+        <v>287</v>
       </c>
       <c r="B3" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="C3" t="s">
-        <v>278</v>
+        <v>294</v>
       </c>
       <c r="D3" t="s">
-        <v>279</v>
+        <v>295</v>
       </c>
       <c r="E3" t="s">
-        <v>280</v>
+        <v>296</v>
       </c>
       <c r="F3" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>271</v>
+        <v>287</v>
       </c>
       <c r="B4" t="s">
-        <v>282</v>
+        <v>298</v>
       </c>
       <c r="C4" t="s">
-        <v>283</v>
+        <v>299</v>
       </c>
       <c r="D4" t="s">
-        <v>284</v>
+        <v>300</v>
       </c>
       <c r="E4" t="s">
-        <v>285</v>
+        <v>301</v>
       </c>
       <c r="F4" t="s">
-        <v>286</v>
+        <v>302</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>271</v>
+        <v>287</v>
       </c>
       <c r="B5" t="s">
-        <v>287</v>
+        <v>303</v>
       </c>
       <c r="C5" t="s">
-        <v>288</v>
+        <v>304</v>
       </c>
       <c r="D5" t="s">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="E5" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="F5" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>271</v>
+        <v>287</v>
       </c>
       <c r="B6" t="s">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="C6" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="D6" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="E6" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="F6" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>271</v>
+        <v>287</v>
       </c>
       <c r="B7" t="s">
         <v>124</v>
       </c>
       <c r="C7" t="s">
-        <v>297</v>
+        <v>313</v>
       </c>
       <c r="D7" t="s">
-        <v>298</v>
+        <v>314</v>
       </c>
       <c r="E7" t="s">
-        <v>299</v>
+        <v>315</v>
       </c>
       <c r="F7" t="s">
-        <v>300</v>
+        <v>316</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="1:6">
       <c r="A8" s="3" t="s">
-        <v>271</v>
+        <v>287</v>
       </c>
       <c r="B8" t="s">
-        <v>301</v>
+        <v>317</v>
       </c>
       <c r="C8" t="s">
-        <v>302</v>
+        <v>318</v>
       </c>
       <c r="D8" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="E8" t="s">
-        <v>304</v>
+        <v>320</v>
       </c>
       <c r="F8" t="s">
-        <v>305</v>
+        <v>321</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>271</v>
+        <v>287</v>
       </c>
       <c r="B9" t="s">
-        <v>306</v>
+        <v>322</v>
       </c>
       <c r="C9" t="s">
-        <v>307</v>
+        <v>323</v>
       </c>
       <c r="D9" t="s">
-        <v>308</v>
+        <v>324</v>
       </c>
       <c r="E9" t="s">
-        <v>309</v>
+        <v>325</v>
       </c>
       <c r="F9" t="s">
-        <v>310</v>
+        <v>326</v>
       </c>
     </row>
   </sheetData>
@@ -3808,18 +3946,18 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="17.875" customWidth="1"/>
     <col min="2" max="2" width="12.625" customWidth="1"/>
-    <col min="3" max="3" width="29" customWidth="1"/>
-    <col min="4" max="4" width="44.875" customWidth="1"/>
+    <col min="3" max="3" width="26.875" customWidth="1"/>
+    <col min="4" max="4" width="46.125" customWidth="1"/>
     <col min="5" max="5" width="99.75" customWidth="1"/>
     <col min="6" max="6" width="35.75" customWidth="1"/>
   </cols>
@@ -3846,93 +3984,111 @@
     </row>
     <row r="2" ht="108" customHeight="1" spans="1:5">
       <c r="A2" t="s">
-        <v>272</v>
+        <v>288</v>
       </c>
       <c r="B2" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="C2" t="s">
-        <v>312</v>
+        <v>328</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="3" ht="59" customHeight="1" spans="1:5">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="3" ht="86" customHeight="1" spans="1:5">
       <c r="A3" t="s">
-        <v>272</v>
+        <v>288</v>
       </c>
       <c r="B3" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="C3" t="s">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>316</v>
+        <v>332</v>
       </c>
       <c r="E3" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="4" ht="48" customHeight="1" spans="1:5">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="4" ht="31" customHeight="1" spans="1:5">
       <c r="A4" t="s">
-        <v>272</v>
+        <v>288</v>
       </c>
       <c r="B4" t="s">
-        <v>311</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>318</v>
+        <v>327</v>
+      </c>
+      <c r="C4" t="s">
+        <v>334</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>319</v>
+        <v>335</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="5" ht="48" customHeight="1" spans="1:5">
       <c r="A5" t="s">
-        <v>272</v>
+        <v>288</v>
       </c>
       <c r="B5" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>327</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>272</v>
+        <v>288</v>
       </c>
       <c r="B6" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>327</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" ht="19" customHeight="1" spans="1:2">
       <c r="A7" t="s">
-        <v>272</v>
+        <v>288</v>
       </c>
       <c r="B7" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>272</v>
+        <v>288</v>
       </c>
       <c r="B8" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>272</v>
+        <v>288</v>
       </c>
       <c r="B9" t="s">
-        <v>311</v>
+        <v>327</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>288</v>
+      </c>
+      <c r="B10" t="s">
+        <v>327</v>
       </c>
     </row>
   </sheetData>
@@ -3947,7 +4103,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>
@@ -3982,62 +4138,62 @@
     </row>
     <row r="2" customFormat="1" spans="1:6">
       <c r="A2" t="s">
-        <v>321</v>
+        <v>339</v>
       </c>
       <c r="B2" t="s">
-        <v>322</v>
+        <v>340</v>
       </c>
       <c r="C2" t="s">
-        <v>323</v>
+        <v>341</v>
       </c>
       <c r="D2" t="s">
-        <v>324</v>
+        <v>342</v>
       </c>
       <c r="E2" t="s">
-        <v>325</v>
+        <v>343</v>
       </c>
       <c r="F2" t="s">
-        <v>326</v>
+        <v>344</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:6">
       <c r="A3" t="s">
-        <v>321</v>
+        <v>339</v>
       </c>
       <c r="B3" t="s">
-        <v>327</v>
+        <v>345</v>
       </c>
       <c r="C3" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
       <c r="D3" t="s">
-        <v>329</v>
+        <v>347</v>
       </c>
       <c r="E3" t="s">
-        <v>330</v>
+        <v>348</v>
       </c>
       <c r="F3" t="s">
-        <v>331</v>
+        <v>349</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:6">
       <c r="A4" t="s">
-        <v>321</v>
+        <v>339</v>
       </c>
       <c r="B4" t="s">
-        <v>332</v>
+        <v>350</v>
       </c>
       <c r="C4" t="s">
-        <v>333</v>
+        <v>351</v>
       </c>
       <c r="D4" t="s">
-        <v>334</v>
+        <v>352</v>
       </c>
       <c r="E4" t="s">
-        <v>335</v>
+        <v>353</v>
       </c>
       <c r="F4" t="s">
-        <v>336</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>
